--- a/Evaluation/statistics-jrrt-inconsistent.xlsx
+++ b/Evaluation/statistics-jrrt-inconsistent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chixiaye/paper/EvaluationPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FEEFAE8-741F-2342-B6D7-580F01ED511A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1E1CE1-E2F8-D44C-AF2D-B66DC245E97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1060" windowWidth="27840" windowHeight="15680" activeTab="4" xr2:uid="{B02152EE-430F-CC4F-9C16-EBA6B44C29D8}"/>
+    <workbookView xWindow="960" yWindow="1080" windowWidth="27840" windowHeight="15680" activeTab="5" xr2:uid="{B02152EE-430F-CC4F-9C16-EBA6B44C29D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Sheet2" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chart!$A$1:$C$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Chart!$A$1:$C$170</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Closure!$C$1:$C$177</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lang!$A$1:$E$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Math!$B$1:$B$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lang!$C$1:$C$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Math!$C$1:$C$163</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Mockito!$A$1:$E$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Time!$A$1:$E$95</definedName>
   </definedNames>
@@ -39,9 +39,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BCB016-A73B-DA4D-A40E-4F05B42245FB}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>2418</v>
+        <v>2437</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>2437</v>
+        <v>2480</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
@@ -1242,7 +1245,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>2480</v>
+        <v>2489</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
@@ -1253,7 +1256,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>2489</v>
+        <v>2521</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
@@ -1264,7 +1267,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>2521</v>
+        <v>2623</v>
       </c>
       <c r="B64" s="2">
         <v>1</v>
@@ -1275,7 +1278,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>2623</v>
+        <v>2771</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
@@ -1286,7 +1289,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>2771</v>
+        <v>2785</v>
       </c>
       <c r="B66" s="2">
         <v>1</v>
@@ -1297,7 +1300,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
@@ -1308,7 +1311,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>2787</v>
+        <v>2884</v>
       </c>
       <c r="B68" s="2">
         <v>1</v>
@@ -1319,7 +1322,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>2884</v>
+        <v>2908</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
@@ -1330,7 +1333,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>2908</v>
+        <v>2964</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
@@ -1341,7 +1344,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>2964</v>
+        <v>3101</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
@@ -1352,7 +1355,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>3101</v>
+        <v>3547</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
@@ -1363,7 +1366,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="B73" s="2">
         <v>1</v>
@@ -1374,7 +1377,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>3548</v>
+        <v>3606</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -1385,7 +1388,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>3606</v>
+        <v>3616</v>
       </c>
       <c r="B75" s="2">
         <v>1</v>
@@ -1396,7 +1399,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>3616</v>
+        <v>3704</v>
       </c>
       <c r="B76" s="2">
         <v>1</v>
@@ -1407,7 +1410,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>3704</v>
+        <v>3714</v>
       </c>
       <c r="B77" s="2">
         <v>1</v>
@@ -1418,7 +1421,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>3714</v>
+        <v>3984</v>
       </c>
       <c r="B78" s="2">
         <v>1</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>3984</v>
+        <v>3995</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -1440,7 +1443,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>3995</v>
+        <v>4192</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
@@ -1451,7 +1454,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>4192</v>
+        <v>4201</v>
       </c>
       <c r="B81" s="2">
         <v>1</v>
@@ -1462,7 +1465,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>4201</v>
+        <v>4203</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
@@ -1473,7 +1476,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>4203</v>
+        <v>4333</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
@@ -1484,7 +1487,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>4333</v>
+        <v>4384</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
@@ -1493,18 +1496,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2">
-        <v>4384</v>
-      </c>
-      <c r="B85" s="2">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C85">
+    <sortCondition ref="C1:C85"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1515,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30FB60-26EE-1C4B-9EA6-E1CB5F9ABA73}">
   <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
@@ -2674,7 +2669,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C178">
-    <sortCondition ref="A1:A178"/>
+    <sortCondition ref="A13:A178"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2685,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA7DFD6-8A28-B340-85C2-E8D3A892D9BA}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3463,6 +3458,7 @@
       <c r="E94" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C94" xr:uid="{FDA7DFD6-8A28-B340-85C2-E8D3A892D9BA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
     <sortCondition ref="A4:A96"/>
   </sortState>
@@ -3476,7 +3472,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C2:C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
@@ -3631,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB823A4A-915D-3447-9DF4-F1B414010CDA}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
@@ -3832,10 +3828,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A42BC9-498A-9F40-9AB1-EAA224D4BD5C}">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31"/>
@@ -5196,18 +5192,18 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>3825</v>
+        <v>3926</v>
       </c>
       <c r="B123" s="4">
         <v>1</v>
       </c>
       <c r="C123" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>3926</v>
+        <v>3958</v>
       </c>
       <c r="B124" s="4">
         <v>1</v>
@@ -5218,18 +5214,18 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>3958</v>
+        <v>4093</v>
       </c>
       <c r="B125" s="4">
         <v>1</v>
       </c>
       <c r="C125" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="9" customFormat="1">
       <c r="A126" s="2">
-        <v>4093</v>
+        <v>4112</v>
       </c>
       <c r="B126" s="4">
         <v>1</v>
@@ -5237,10 +5233,11 @@
       <c r="C126" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" s="9" customFormat="1">
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>4112</v>
+        <v>4249</v>
       </c>
       <c r="B127" s="4">
         <v>1</v>
@@ -5248,11 +5245,10 @@
       <c r="C127" s="4">
         <v>2</v>
       </c>
-      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>4249</v>
+        <v>4280</v>
       </c>
       <c r="B128" s="4">
         <v>1</v>
@@ -5263,7 +5259,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>4280</v>
+        <v>4282</v>
       </c>
       <c r="B129" s="4">
         <v>1</v>
@@ -5273,21 +5269,13 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="2">
-        <v>4282</v>
-      </c>
-      <c r="B130" s="4">
-        <v>1</v>
-      </c>
-      <c r="C130" s="4">
-        <v>2</v>
-      </c>
+      <c r="A130" s="2"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2"/>
+      <c r="A131" s="5"/>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="2"/>
+      <c r="A132" s="5"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="5"/>
@@ -5382,48 +5370,10 @@
     <row r="163" spans="1:1">
       <c r="A163" s="5"/>
     </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="5"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="5"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="5"/>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="5"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="5"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="5"/>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="5"/>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="5"/>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="5"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="5"/>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="5"/>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="5"/>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="5"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C177">
-    <sortCondition ref="A1:A177"/>
+  <autoFilter ref="C1:C163" xr:uid="{C1A42BC9-498A-9F40-9AB1-EAA224D4BD5C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C164">
+    <sortCondition ref="A1:A164"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5434,7 +5384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF80C072-2A83-F447-9C6A-FE130E8C7792}">
   <dimension ref="A1:H487"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B19"/>
     </sheetView>
   </sheetViews>
@@ -6081,7 +6031,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55">
-        <f t="shared" ref="C2:C65" si="1">IF(COUNTIF(A:A,B55)&gt;0,,B55)</f>
+        <f t="shared" ref="C55:C65" si="1">IF(COUNTIF(A:A,B55)&gt;0,,B55)</f>
         <v>0</v>
       </c>
       <c r="H55" s="2"/>
@@ -9076,8 +9026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384029F1-C593-CC49-97D9-C8293931A69A}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -9345,96 +9295,131 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173B0162-7272-C043-9E1A-A350A3A0EB2D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1">
-        <v>84</v>
+        <v>510</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="C1">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="D1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="E1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C2">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
+        <v>565</v>
+      </c>
+      <c r="B3">
+        <v>426</v>
+      </c>
+      <c r="C3">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>94</v>
+      </c>
+      <c r="E3">
         <v>17</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>10</v>
+        <v>3831</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3152</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>642</v>
+      </c>
+      <c r="E4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>14</v>
+        <v>3516</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2698</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>790</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>129</v>
+        <v>2465</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1813</v>
       </c>
       <c r="C6">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>547</v>
+      </c>
+      <c r="E6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>11022</v>
+      </c>
+      <c r="B7">
+        <v>8591</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>2193</v>
+      </c>
+      <c r="E7">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
